--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8370283333333334</v>
+        <v>2.721294</v>
       </c>
       <c r="H2">
-        <v>2.511085</v>
+        <v>8.163882000000001</v>
       </c>
       <c r="I2">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="J2">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.292844666666667</v>
+        <v>0.8685706666666667</v>
       </c>
       <c r="N2">
-        <v>6.878534</v>
+        <v>2.605712</v>
       </c>
       <c r="O2">
-        <v>0.4949693416994264</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="P2">
-        <v>0.4949693416994265</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="Q2">
-        <v>1.919175949932223</v>
+        <v>2.363636143776001</v>
       </c>
       <c r="R2">
-        <v>17.27258354939</v>
+        <v>21.272725293984</v>
       </c>
       <c r="S2">
-        <v>0.005206277801885485</v>
+        <v>0.009044584278274205</v>
       </c>
       <c r="T2">
-        <v>0.005206277801885486</v>
+        <v>0.009044584278274205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8370283333333334</v>
+        <v>2.721294</v>
       </c>
       <c r="H3">
-        <v>2.511085</v>
+        <v>8.163882000000001</v>
       </c>
       <c r="I3">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="J3">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.443815</v>
       </c>
       <c r="O3">
-        <v>0.3197704896398035</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="P3">
-        <v>0.3197704896398036</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="Q3">
-        <v>1.239866354363889</v>
+        <v>4.03097569887</v>
       </c>
       <c r="R3">
-        <v>11.158797189275</v>
+        <v>36.27878128983</v>
       </c>
       <c r="S3">
-        <v>0.003363468929598334</v>
+        <v>0.01542475119451386</v>
       </c>
       <c r="T3">
-        <v>0.003363468929598334</v>
+        <v>0.01542475119451386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8370283333333334</v>
+        <v>2.721294</v>
       </c>
       <c r="H4">
-        <v>2.511085</v>
+        <v>8.163882000000001</v>
       </c>
       <c r="I4">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="J4">
-        <v>0.01051838439934535</v>
+        <v>0.03340571984979829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.57454</v>
       </c>
       <c r="O4">
-        <v>0.18526016866077</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="P4">
-        <v>0.1852601686607701</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="Q4">
-        <v>0.7183209751</v>
+        <v>2.33536008492</v>
       </c>
       <c r="R4">
-        <v>6.4648887759</v>
+        <v>21.01824076428</v>
       </c>
       <c r="S4">
-        <v>0.001948637667861532</v>
+        <v>0.008936384377010227</v>
       </c>
       <c r="T4">
-        <v>0.001948637667861532</v>
+        <v>0.008936384377010227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>104.519883</v>
       </c>
       <c r="I5">
-        <v>0.437810869312907</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="J5">
-        <v>0.4378108693129071</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.292844666666667</v>
+        <v>0.8685706666666667</v>
       </c>
       <c r="N5">
-        <v>6.878534</v>
+        <v>2.605712</v>
       </c>
       <c r="O5">
-        <v>0.4949693416994264</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="P5">
-        <v>0.4949693416994265</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="Q5">
-        <v>79.88261876572466</v>
+        <v>30.26096815241067</v>
       </c>
       <c r="R5">
-        <v>718.943568891522</v>
+        <v>272.348713371696</v>
       </c>
       <c r="S5">
-        <v>0.2167029577726632</v>
+        <v>0.1157952663388397</v>
       </c>
       <c r="T5">
-        <v>0.2167029577726632</v>
+        <v>0.1157952663388397</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>104.519883</v>
       </c>
       <c r="I6">
-        <v>0.437810869312907</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="J6">
-        <v>0.4378108693129071</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.443815</v>
       </c>
       <c r="O6">
-        <v>0.3197704896398035</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="P6">
-        <v>0.3197704896398036</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="Q6">
         <v>51.60744709707166</v>
@@ -818,10 +818,10 @@
         <v>464.467023873645</v>
       </c>
       <c r="S6">
-        <v>0.1399989960498163</v>
+        <v>0.1974787472619886</v>
       </c>
       <c r="T6">
-        <v>0.1399989960498164</v>
+        <v>0.1974787472619886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>104.519883</v>
       </c>
       <c r="I7">
-        <v>0.437810869312907</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="J7">
-        <v>0.4378108693129071</v>
+        <v>0.427684027063558</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.57454</v>
       </c>
       <c r="O7">
-        <v>0.18526016866077</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="P7">
-        <v>0.1852601686607701</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="Q7">
         <v>29.89895773097999</v>
@@ -880,10 +880,10 @@
         <v>269.0906195788199</v>
       </c>
       <c r="S7">
-        <v>0.08110891549042749</v>
+        <v>0.1144100134627297</v>
       </c>
       <c r="T7">
-        <v>0.08110891549042752</v>
+        <v>0.1144100134627297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>131.701988</v>
       </c>
       <c r="I8">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="J8">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.292844666666667</v>
+        <v>0.8685706666666667</v>
       </c>
       <c r="N8">
-        <v>6.878534</v>
+        <v>2.605712</v>
       </c>
       <c r="O8">
-        <v>0.4949693416994264</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="P8">
-        <v>0.4949693416994265</v>
+        <v>0.2707495698024546</v>
       </c>
       <c r="Q8">
-        <v>100.6574002583991</v>
+        <v>38.13082783949511</v>
       </c>
       <c r="R8">
-        <v>905.9166023255921</v>
+        <v>343.177450555456</v>
       </c>
       <c r="S8">
-        <v>0.2730601061248777</v>
+        <v>0.1459097191853407</v>
       </c>
       <c r="T8">
-        <v>0.2730601061248777</v>
+        <v>0.1459097191853407</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>131.701988</v>
       </c>
       <c r="I9">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="J9">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>4.443815</v>
       </c>
       <c r="O9">
-        <v>0.3197704896398035</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="P9">
-        <v>0.3197704896398036</v>
+        <v>0.4617398237148598</v>
       </c>
       <c r="Q9">
         <v>65.02880775602445</v>
@@ -1004,10 +1004,10 @@
         <v>585.25926980422</v>
       </c>
       <c r="S9">
-        <v>0.1764080246603889</v>
+        <v>0.2488363252583574</v>
       </c>
       <c r="T9">
-        <v>0.1764080246603889</v>
+        <v>0.2488363252583574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>131.701988</v>
       </c>
       <c r="I10">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="J10">
-        <v>0.5516707462877476</v>
+        <v>0.5389102530866438</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.57454</v>
       </c>
       <c r="O10">
-        <v>0.18526016866077</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="P10">
-        <v>0.1852601686607701</v>
+        <v>0.2675106064826855</v>
       </c>
       <c r="Q10">
         <v>37.67467068728</v>
@@ -1066,10 +1066,10 @@
         <v>339.07203618552</v>
       </c>
       <c r="S10">
-        <v>0.102202615502481</v>
+        <v>0.1441642086429456</v>
       </c>
       <c r="T10">
-        <v>0.102202615502481</v>
+        <v>0.1441642086429456</v>
       </c>
     </row>
   </sheetData>
